--- a/data/top100_richest_people_forbes_ua.xlsx
+++ b/data/top100_richest_people_forbes_ua.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oleh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oleh\Desktop\GitHub\transliteration_from_cyrillic\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CCF537-1EB6-401A-A2EF-D07445B26904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08A00F5-DD2F-4FED-8BD2-CDB3DBAB75EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{88CE495A-EAF5-4897-A944-2783C58B7F29}"/>
   </bookViews>
@@ -364,202 +364,6 @@
     <t>$1,8 млрд</t>
   </si>
   <si>
-    <t xml:space="preserve">
-$1,7 млрд</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$1,6 млрд</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$1,4 млрд</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$820 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$780 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$730 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$620 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$545 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$540 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$530 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$520 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$505 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$470 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$465 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$460 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$450 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$430 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$420 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$390 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$385 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$340 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$310 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$300 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$280 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$275 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$260 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$260млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$240 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$235 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$230 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$220 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$215 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$210 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$205 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$200 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$195 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$190 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$185 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$180 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$175 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$165 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$160 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$155 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$150 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$145 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$140 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$135 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$130 млн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-$125 млн</t>
-  </si>
-  <si>
     <t>«Метінвест», ДТЕК</t>
   </si>
   <si>
@@ -924,6 +728,153 @@
   </si>
   <si>
     <t>Нерухомість, АПК, ПЕК</t>
+  </si>
+  <si>
+    <t>$1,7 млрд</t>
+  </si>
+  <si>
+    <t>$1,6 млрд</t>
+  </si>
+  <si>
+    <t>$1,4 млрд</t>
+  </si>
+  <si>
+    <t>$820 млн</t>
+  </si>
+  <si>
+    <t>$780 млн</t>
+  </si>
+  <si>
+    <t>$730 млн</t>
+  </si>
+  <si>
+    <t>$620 млн</t>
+  </si>
+  <si>
+    <t>$545 млн</t>
+  </si>
+  <si>
+    <t>$540 млн</t>
+  </si>
+  <si>
+    <t>$530 млн</t>
+  </si>
+  <si>
+    <t>$520 млн</t>
+  </si>
+  <si>
+    <t>$505 млн</t>
+  </si>
+  <si>
+    <t>$470 млн</t>
+  </si>
+  <si>
+    <t>$465 млн</t>
+  </si>
+  <si>
+    <t>$460 млн</t>
+  </si>
+  <si>
+    <t>$450 млн</t>
+  </si>
+  <si>
+    <t>$430 млн</t>
+  </si>
+  <si>
+    <t>$420 млн</t>
+  </si>
+  <si>
+    <t>$390 млн</t>
+  </si>
+  <si>
+    <t>$385 млн</t>
+  </si>
+  <si>
+    <t>$340 млн</t>
+  </si>
+  <si>
+    <t>$310 млн</t>
+  </si>
+  <si>
+    <t>$300 млн</t>
+  </si>
+  <si>
+    <t>$280 млн</t>
+  </si>
+  <si>
+    <t>$275 млн</t>
+  </si>
+  <si>
+    <t>$260 млн</t>
+  </si>
+  <si>
+    <t>$260млн</t>
+  </si>
+  <si>
+    <t>$240 млн</t>
+  </si>
+  <si>
+    <t>$235 млн</t>
+  </si>
+  <si>
+    <t>$230 млн</t>
+  </si>
+  <si>
+    <t>$220 млн</t>
+  </si>
+  <si>
+    <t>$215 млн</t>
+  </si>
+  <si>
+    <t>$210 млн</t>
+  </si>
+  <si>
+    <t>$205 млн</t>
+  </si>
+  <si>
+    <t>$200 млн</t>
+  </si>
+  <si>
+    <t>$195 млн</t>
+  </si>
+  <si>
+    <t>$190 млн</t>
+  </si>
+  <si>
+    <t>$185 млн</t>
+  </si>
+  <si>
+    <t>$180 млн</t>
+  </si>
+  <si>
+    <t>$175 млн</t>
+  </si>
+  <si>
+    <t>$165 млн</t>
+  </si>
+  <si>
+    <t>$160 млн</t>
+  </si>
+  <si>
+    <t>$155 млн</t>
+  </si>
+  <si>
+    <t>$150 млн</t>
+  </si>
+  <si>
+    <t>$145 млн</t>
+  </si>
+  <si>
+    <t>$140 млн</t>
+  </si>
+  <si>
+    <t>$135 млн</t>
+  </si>
+  <si>
+    <t>$130 млн</t>
+  </si>
+  <si>
+    <t>$125 млн</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1232,7 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1320,10 +1271,10 @@
         <v>105</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1337,10 +1288,10 @@
         <v>106</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>239</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1354,10 +1305,10 @@
         <v>107</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1371,13 +1322,13 @@
         <v>108</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1385,16 +1336,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>109</v>
+        <v>231</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1402,16 +1353,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>109</v>
+        <v>231</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1419,16 +1370,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>110</v>
+        <v>232</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1436,16 +1387,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1453,16 +1404,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>112</v>
+        <v>234</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1470,16 +1421,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>113</v>
+        <v>235</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1487,13 +1438,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>114</v>
+        <v>236</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1504,13 +1455,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>115</v>
+        <v>237</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1518,16 +1469,16 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>116</v>
+        <v>238</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1535,16 +1486,16 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>117</v>
+        <v>239</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1552,16 +1503,16 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1569,16 +1520,16 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>119</v>
+        <v>241</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1586,16 +1537,16 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>120</v>
+        <v>242</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1603,16 +1554,16 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>120</v>
+        <v>242</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1620,16 +1571,16 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>121</v>
+        <v>243</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1637,16 +1588,16 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>121</v>
+        <v>243</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1654,16 +1605,16 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>122</v>
+        <v>244</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1671,16 +1622,16 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>123</v>
+        <v>245</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1688,16 +1639,16 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>124</v>
+        <v>246</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1705,16 +1656,16 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1722,16 +1673,16 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>126</v>
+        <v>248</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1739,16 +1690,16 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1756,16 +1707,16 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1773,16 +1724,16 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>129</v>
+        <v>251</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1790,16 +1741,16 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>130</v>
+        <v>252</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1807,16 +1758,16 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>131</v>
+        <v>253</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1824,16 +1775,16 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>131</v>
+        <v>253</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1841,13 +1792,13 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>131</v>
+        <v>253</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1855,13 +1806,13 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>131</v>
+        <v>253</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1869,16 +1820,16 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>131</v>
+        <v>253</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1886,13 +1837,13 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>132</v>
+        <v>254</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>252</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1903,16 +1854,16 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>133</v>
+        <v>255</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1920,16 +1871,16 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>133</v>
+        <v>255</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1937,16 +1888,16 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>134</v>
+        <v>256</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1954,16 +1905,16 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>134</v>
+        <v>256</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1971,16 +1922,16 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>135</v>
+        <v>257</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1988,16 +1939,16 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>134</v>
+        <v>256</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2005,16 +1956,16 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>136</v>
+        <v>258</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2022,16 +1973,16 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>137</v>
+        <v>259</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2039,16 +1990,16 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>138</v>
+        <v>260</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2056,16 +2007,16 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>139</v>
+        <v>261</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2073,16 +2024,16 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>139</v>
+        <v>261</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2090,13 +2041,13 @@
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>139</v>
+        <v>261</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2104,16 +2055,16 @@
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>140</v>
+        <v>262</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2121,16 +2072,16 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>140</v>
+        <v>262</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2138,16 +2089,16 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>141</v>
+        <v>263</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2155,16 +2106,16 @@
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2172,16 +2123,16 @@
         <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>143</v>
+        <v>265</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2189,16 +2140,16 @@
         <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>144</v>
+        <v>266</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2206,16 +2157,16 @@
         <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>145</v>
+        <v>267</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2223,16 +2174,16 @@
         <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>145</v>
+        <v>267</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2240,16 +2191,16 @@
         <v>56</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>145</v>
+        <v>267</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2257,16 +2208,16 @@
         <v>57</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>146</v>
+        <v>268</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2274,16 +2225,16 @@
         <v>58</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>147</v>
+        <v>269</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2291,16 +2242,16 @@
         <v>59</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>147</v>
+        <v>269</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2308,16 +2259,16 @@
         <v>60</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>147</v>
+        <v>269</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2325,16 +2276,16 @@
         <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>147</v>
+        <v>269</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2342,16 +2293,16 @@
         <v>62</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>148</v>
+        <v>270</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2359,16 +2310,16 @@
         <v>63</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>148</v>
+        <v>270</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2376,16 +2327,16 @@
         <v>64</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>148</v>
+        <v>270</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2393,16 +2344,16 @@
         <v>65</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>149</v>
+        <v>271</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2410,16 +2361,16 @@
         <v>66</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>149</v>
+        <v>271</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2427,16 +2378,16 @@
         <v>67</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>149</v>
+        <v>271</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2444,16 +2395,16 @@
         <v>68</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>150</v>
+        <v>272</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2461,16 +2412,16 @@
         <v>69</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>151</v>
+        <v>273</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2478,16 +2429,16 @@
         <v>70</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>151</v>
+        <v>273</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2495,16 +2446,16 @@
         <v>71</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>151</v>
+        <v>273</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2512,16 +2463,16 @@
         <v>72</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>152</v>
+        <v>274</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2529,16 +2480,16 @@
         <v>73</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>152</v>
+        <v>274</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2546,16 +2497,16 @@
         <v>74</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>152</v>
+        <v>274</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2563,16 +2514,16 @@
         <v>75</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>152</v>
+        <v>274</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2580,16 +2531,16 @@
         <v>76</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>153</v>
+        <v>275</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2597,16 +2548,16 @@
         <v>77</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>153</v>
+        <v>275</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2614,16 +2565,16 @@
         <v>78</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>153</v>
+        <v>275</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2631,16 +2582,16 @@
         <v>79</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>153</v>
+        <v>275</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2648,16 +2599,16 @@
         <v>80</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>153</v>
+        <v>275</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2665,16 +2616,16 @@
         <v>81</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>153</v>
+        <v>275</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>223</v>
+        <v>174</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2682,16 +2633,16 @@
         <v>82</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>154</v>
+        <v>276</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2699,16 +2650,16 @@
         <v>83</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>154</v>
+        <v>276</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2716,16 +2667,16 @@
         <v>84</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>154</v>
+        <v>276</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2733,16 +2684,16 @@
         <v>85</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>154</v>
+        <v>276</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>226</v>
+        <v>177</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2750,16 +2701,16 @@
         <v>86</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>154</v>
+        <v>276</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2767,16 +2718,16 @@
         <v>87</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>154</v>
+        <v>276</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2784,16 +2735,16 @@
         <v>88</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>155</v>
+        <v>277</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2801,16 +2752,16 @@
         <v>89</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>155</v>
+        <v>277</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2818,16 +2769,16 @@
         <v>90</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>155</v>
+        <v>277</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>230</v>
+        <v>181</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2835,16 +2786,16 @@
         <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>155</v>
+        <v>277</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2852,16 +2803,16 @@
         <v>92</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>156</v>
+        <v>278</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2869,16 +2820,16 @@
         <v>93</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>156</v>
+        <v>278</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2886,16 +2837,16 @@
         <v>94</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>156</v>
+        <v>278</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2903,16 +2854,16 @@
         <v>95</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>156</v>
+        <v>278</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2920,16 +2871,16 @@
         <v>96</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>156</v>
+        <v>278</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2937,16 +2888,16 @@
         <v>97</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>156</v>
+        <v>278</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2954,16 +2905,16 @@
         <v>98</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>156</v>
+        <v>278</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2971,16 +2922,16 @@
         <v>99</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>156</v>
+        <v>278</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2988,13 +2939,13 @@
         <v>100</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>157</v>
+        <v>279</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
